--- a/data/trans_orig/Q5417-Clase-trans_orig.xlsx
+++ b/data/trans_orig/Q5417-Clase-trans_orig.xlsx
@@ -854,7 +854,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>6415</v>
+        <v>6422</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.04287623457384587</v>
@@ -863,7 +863,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2159357098431097</v>
+        <v>0.2161494972424858</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>1</v>
@@ -875,7 +875,7 @@
         <v>0</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>6610</v>
+        <v>5454</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.01423346250214664</v>
@@ -884,7 +884,7 @@
         <v>0</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.07386470169798112</v>
+        <v>0.06094071572926273</v>
       </c>
     </row>
     <row r="7">
@@ -914,7 +914,7 @@
         <v>28435</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>23294</v>
+        <v>23287</v>
       </c>
       <c r="M7" s="5" t="n">
         <v>29709</v>
@@ -923,7 +923,7 @@
         <v>0.9571237654261542</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.7840642901568903</v>
+        <v>0.7838505027575148</v>
       </c>
       <c r="P7" s="6" t="n">
         <v>1</v>
@@ -935,7 +935,7 @@
         <v>88219</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>82883</v>
+        <v>84039</v>
       </c>
       <c r="T7" s="5" t="n">
         <v>89493</v>
@@ -944,7 +944,7 @@
         <v>0.9857665374978534</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.9261352983020188</v>
+        <v>0.9390592842707364</v>
       </c>
       <c r="W7" s="6" t="n">
         <v>1</v>
@@ -1102,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>3973</v>
+        <v>3962</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.0586525296888389</v>
@@ -1111,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2517087971565938</v>
+        <v>0.2509606386108201</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1</v>
@@ -1123,7 +1123,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>4234</v>
+        <v>5042</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01389871419351208</v>
@@ -1132,7 +1132,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.06355759283038342</v>
+        <v>0.07569021361630598</v>
       </c>
     </row>
     <row r="11">
@@ -1209,7 +1209,7 @@
         <v>14860</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>11813</v>
+        <v>11824</v>
       </c>
       <c r="M12" s="5" t="n">
         <v>15786</v>
@@ -1218,7 +1218,7 @@
         <v>0.9413474703111611</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.7482912028434062</v>
+        <v>0.7490393613891799</v>
       </c>
       <c r="P12" s="6" t="n">
         <v>1</v>
@@ -1230,7 +1230,7 @@
         <v>65690</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>62382</v>
+        <v>61574</v>
       </c>
       <c r="T12" s="5" t="n">
         <v>66616</v>
@@ -1239,7 +1239,7 @@
         <v>0.9861012858064879</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.9364424071696159</v>
+        <v>0.9243097863836932</v>
       </c>
       <c r="W12" s="6" t="n">
         <v>1</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>5412</v>
+        <v>5430</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.04700593135308719</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2229529396137269</v>
+        <v>0.2237063266787716</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1</v>
@@ -1371,7 +1371,7 @@
         <v>0</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>5209</v>
+        <v>6319</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01188263730392363</v>
@@ -1380,7 +1380,7 @@
         <v>0</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.05424750441971093</v>
+        <v>0.06580688966234702</v>
       </c>
     </row>
     <row r="15">
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>5273</v>
+        <v>5595</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02337664441750191</v>
@@ -1456,7 +1456,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0734808261529883</v>
+        <v>0.07797156451941829</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1</v>
@@ -1468,7 +1468,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>5241</v>
+        <v>5186</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.04267926274394805</v>
@@ -1477,7 +1477,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2158938440050607</v>
+        <v>0.2136164788849115</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>3</v>
@@ -1486,19 +1486,19 @@
         <v>2713</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>806</v>
+        <v>811</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>7518</v>
+        <v>8038</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02825615655537097</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.008391359345094662</v>
+        <v>0.008446311705177414</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.07828408720367613</v>
+        <v>0.08370181540657343</v>
       </c>
     </row>
     <row r="17">
@@ -1515,7 +1515,7 @@
         <v>70077</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>66481</v>
+        <v>66159</v>
       </c>
       <c r="F17" s="5" t="n">
         <v>71754</v>
@@ -1524,7 +1524,7 @@
         <v>0.9766233555824981</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9265191738470118</v>
+        <v>0.9220284354805813</v>
       </c>
       <c r="I17" s="6" t="n">
         <v>1</v>
@@ -1536,7 +1536,7 @@
         <v>22098</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>17837</v>
+        <v>16824</v>
       </c>
       <c r="M17" s="5" t="n">
         <v>24275</v>
@@ -1545,7 +1545,7 @@
         <v>0.9103148059029648</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7348078882540632</v>
+        <v>0.6930705136934472</v>
       </c>
       <c r="P17" s="6" t="n">
         <v>1</v>
@@ -1557,19 +1557,19 @@
         <v>92175</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>86644</v>
+        <v>86570</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>94978</v>
+        <v>95013</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9598612061407054</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9022628731594016</v>
+        <v>0.9014915883038939</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9890456000166131</v>
+        <v>0.9894100775968088</v>
       </c>
     </row>
     <row r="18">
@@ -1664,7 +1664,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>4209</v>
+        <v>4198</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.003223737916188139</v>
@@ -1673,7 +1673,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.01618288850859328</v>
+        <v>0.01614221778263698</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>0</v>
@@ -1698,7 +1698,7 @@
         <v>0</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>4591</v>
+        <v>4226</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.002424365503233344</v>
@@ -1707,7 +1707,7 @@
         <v>0</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.01327663565964646</v>
+        <v>0.01221922533836152</v>
       </c>
     </row>
     <row r="20">
@@ -1727,7 +1727,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>3992</v>
+        <v>4398</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.003337783805145023</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.01534792012481488</v>
+        <v>0.01691154215569895</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1</v>
@@ -1748,7 +1748,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>5181</v>
+        <v>5668</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.0135372489033814</v>
@@ -1757,7 +1757,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.06041862058815313</v>
+        <v>0.06609362044687642</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>2</v>
@@ -1769,7 +1769,7 @@
         <v>0</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>7096</v>
+        <v>7224</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.005866888601624888</v>
@@ -1778,7 +1778,7 @@
         <v>0</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.02051955106949608</v>
+        <v>0.02088865231230482</v>
       </c>
     </row>
     <row r="21">
@@ -1795,19 +1795,19 @@
         <v>6647</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>2865</v>
+        <v>2812</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>12692</v>
+        <v>13403</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.02555872684535606</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.01101784673591671</v>
+        <v>0.0108138451883216</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.04880286628302893</v>
+        <v>0.05153536703965809</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>1</v>
@@ -1819,7 +1819,7 @@
         <v>0</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>5306</v>
+        <v>5286</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.01227728806699716</v>
@@ -1828,7 +1828,7 @@
         <v>0</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.06188108207903238</v>
+        <v>0.06163770147274433</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>8</v>
@@ -1837,19 +1837,19 @@
         <v>7700</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>3808</v>
+        <v>3653</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>15179</v>
+        <v>14632</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.02226540212734615</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.01101101575923242</v>
+        <v>0.01056323937546161</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.04389192231385822</v>
+        <v>0.04231057777151767</v>
       </c>
     </row>
     <row r="22">
@@ -1866,19 +1866,19 @@
         <v>251718</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>245331</v>
+        <v>244418</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>256011</v>
+        <v>256373</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9678797514333107</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9433192394431678</v>
+        <v>0.9398097194370286</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9843850227521929</v>
+        <v>0.9857754686002259</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>86</v>
@@ -1887,7 +1887,7 @@
         <v>83538</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>78532</v>
+        <v>79068</v>
       </c>
       <c r="M22" s="5" t="n">
         <v>85752</v>
@@ -1896,7 +1896,7 @@
         <v>0.9741854630296215</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.9158066472421807</v>
+        <v>0.9220505910076754</v>
       </c>
       <c r="P22" s="6" t="n">
         <v>1</v>
@@ -1908,19 +1908,19 @@
         <v>335257</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>327943</v>
+        <v>327496</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>340217</v>
+        <v>340207</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9694433437677956</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9482951442199304</v>
+        <v>0.9470027527273497</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9837857797414822</v>
+        <v>0.9837579796051258</v>
       </c>
     </row>
     <row r="23">
@@ -2028,16 +2028,16 @@
         <v>0</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>6292</v>
+        <v>6152</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.01140284536938146</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0</v>
+        <v>3.135679876193274e-07</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.0653698147499559</v>
+        <v>0.06391707485577559</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>2</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>5598</v>
+        <v>6322</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.007234096078417332</v>
@@ -2058,7 +2058,7 @@
         <v>0</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.03689835195869909</v>
+        <v>0.04167316932992884</v>
       </c>
     </row>
     <row r="25">
@@ -2078,7 +2078,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>4231</v>
+        <v>4611</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.0149760885067738</v>
@@ -2087,7 +2087,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.07629016737330291</v>
+        <v>0.08314163113503428</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1</v>
@@ -2099,7 +2099,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>6350</v>
+        <v>7341</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.01271512207838127</v>
@@ -2108,7 +2108,7 @@
         <v>0</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.06596919927029979</v>
+        <v>0.07627060579827719</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>2</v>
@@ -2120,7 +2120,7 @@
         <v>0</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>6559</v>
+        <v>6985</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01354170543454637</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.04322916407144783</v>
+        <v>0.0460374204792661</v>
       </c>
     </row>
     <row r="26">
@@ -2149,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>5179</v>
+        <v>4816</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.01865136889995128</v>
@@ -2158,7 +2158,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.0933752023890755</v>
+        <v>0.08683517498733166</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>5</v>
@@ -2167,19 +2167,19 @@
         <v>5689</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2076</v>
+        <v>2072</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>12069</v>
+        <v>12892</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.05910207998752005</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.02156867166681726</v>
+        <v>0.02152806113544433</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1253955234823261</v>
+        <v>0.1339384288781684</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6</v>
@@ -2188,19 +2188,19 @@
         <v>6723</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>3121</v>
+        <v>2316</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>14568</v>
+        <v>14246</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.04431376464141409</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.02057415993302679</v>
+        <v>0.0152635188160981</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.09602069050459117</v>
+        <v>0.09389868349290016</v>
       </c>
     </row>
     <row r="27">
@@ -2217,7 +2217,7 @@
         <v>53600</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>48791</v>
+        <v>49839</v>
       </c>
       <c r="F27" s="5" t="n">
         <v>55465</v>
@@ -2226,7 +2226,7 @@
         <v>0.9663725425932749</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.8796759339380341</v>
+        <v>0.8985622017657121</v>
       </c>
       <c r="I27" s="6" t="n">
         <v>1</v>
@@ -2238,19 +2238,19 @@
         <v>88240</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>80726</v>
+        <v>81130</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>92806</v>
+        <v>92853</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.9167799525647172</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.8387147531651415</v>
+        <v>0.8429105069834147</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.9642191681044122</v>
+        <v>0.9647085420896868</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>141</v>
@@ -2259,19 +2259,19 @@
         <v>141840</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>133206</v>
+        <v>133966</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>147163</v>
+        <v>147159</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.9349104338456222</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.878004625732248</v>
+        <v>0.8830135771540318</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.9699959357611765</v>
+        <v>0.9699670317935351</v>
       </c>
     </row>
     <row r="28">
@@ -2379,7 +2379,7 @@
         <v>0</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>7678</v>
+        <v>7189</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.004935505889816061</v>
@@ -2388,7 +2388,7 @@
         <v>0</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.01806251838470707</v>
+        <v>0.01691310882726753</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>2</v>
@@ -2400,7 +2400,7 @@
         <v>0</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>7913</v>
+        <v>6644</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.004893543606798486</v>
@@ -2409,7 +2409,7 @@
         <v>0</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.0184580859436839</v>
+        <v>0.01549680264100928</v>
       </c>
     </row>
     <row r="30">
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>7001</v>
+        <v>7043</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.004754945216736505</v>
@@ -2451,7 +2451,7 @@
         <v>0</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.01647025476385491</v>
+        <v>0.0165691948120107</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>2</v>
@@ -2463,7 +2463,7 @@
         <v>0</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>6545</v>
+        <v>6289</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.004714518082948766</v>
@@ -2472,7 +2472,7 @@
         <v>0</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.01526561989182919</v>
+        <v>0.01466894268533526</v>
       </c>
     </row>
     <row r="31">
@@ -2502,19 +2502,19 @@
         <v>15063</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>7860</v>
+        <v>7982</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>23514</v>
+        <v>24116</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.03543768833342655</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.0184918357191425</v>
+        <v>0.01877853633723606</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.05531687331875283</v>
+        <v>0.05673475207680905</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>14</v>
@@ -2523,19 +2523,19 @@
         <v>15063</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>8488</v>
+        <v>8141</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>24060</v>
+        <v>24137</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.03513639271337587</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.01979789730094995</v>
+        <v>0.01898993825471393</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.0561219841220704</v>
+        <v>0.05630111499059409</v>
       </c>
     </row>
     <row r="32">
@@ -2565,19 +2565,19 @@
         <v>405887</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>395897</v>
+        <v>395798</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>413871</v>
+        <v>414082</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.9548718605600209</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.9313697251439351</v>
+        <v>0.9311368294466996</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.9736533463193452</v>
+        <v>0.9741493939518988</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>398</v>
@@ -2586,19 +2586,19 @@
         <v>409532</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>398703</v>
+        <v>399201</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>416423</v>
+        <v>417220</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.9552555455968769</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.929994408420092</v>
+        <v>0.9311575315726094</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.9713271352769821</v>
+        <v>0.9731871093509953</v>
       </c>
     </row>
     <row r="33">
@@ -2693,7 +2693,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>4849</v>
+        <v>4236</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.001671623538634679</v>
@@ -2702,7 +2702,7 @@
         <v>0</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.009668018228167572</v>
+        <v>0.008444808103215967</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>5</v>
@@ -2711,19 +2711,19 @@
         <v>4337</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>1129</v>
+        <v>1141</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>9957</v>
+        <v>10075</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.006407026651411883</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.001668622853569762</v>
+        <v>0.001685823224902118</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.01471044688942647</v>
+        <v>0.01488490825659916</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>6</v>
@@ -2732,19 +2732,19 @@
         <v>5175</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>1944</v>
+        <v>1962</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>10813</v>
+        <v>11080</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.004391531041258929</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.001649315217726289</v>
+        <v>0.001665304583273915</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.009176319047794543</v>
+        <v>0.009402940701037124</v>
       </c>
     </row>
     <row r="35">
@@ -2764,7 +2764,7 @@
         <v>0</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>6004</v>
+        <v>5608</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.003386933588397731</v>
@@ -2773,7 +2773,7 @@
         <v>0</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.01197136562417392</v>
+        <v>0.01118161301729045</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>5</v>
@@ -2782,19 +2782,19 @@
         <v>5332</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>2032</v>
+        <v>2023</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>12684</v>
+        <v>11392</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.007877377073954089</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.003001841322855569</v>
+        <v>0.002989090486654244</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.0187398506545706</v>
+        <v>0.01683048000416131</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>7</v>
@@ -2803,19 +2803,19 @@
         <v>7030</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>2952</v>
+        <v>2946</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>14015</v>
+        <v>14129</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.005966141870269206</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.002505189162898215</v>
+        <v>0.002499932034477236</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.01189352700846328</v>
+        <v>0.01198994568943525</v>
       </c>
     </row>
     <row r="36">
@@ -2832,19 +2832,19 @@
         <v>9359</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>4717</v>
+        <v>4778</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>16871</v>
+        <v>16940</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.01866010028014177</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.009405077128659754</v>
+        <v>0.009526742111425863</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.03363782055127536</v>
+        <v>0.03377437680554461</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>22</v>
@@ -2853,19 +2853,19 @@
         <v>24115</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>15575</v>
+        <v>16660</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>36953</v>
+        <v>37971</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.03562829941696736</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.02301165814437675</v>
+        <v>0.0246138834056394</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.05459691560955719</v>
+        <v>0.05610035005067113</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>32</v>
@@ -2874,19 +2874,19 @@
         <v>33474</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>22698</v>
+        <v>22733</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>45672</v>
+        <v>45972</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.02840624670931181</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.01926199195750365</v>
+        <v>0.01929120820832537</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.03875795418868828</v>
+        <v>0.03901213408667354</v>
       </c>
     </row>
     <row r="37">
@@ -2903,19 +2903,19 @@
         <v>489655</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>481195</v>
+        <v>481220</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>494932</v>
+        <v>494449</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.9762813425928258</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.9594142874611338</v>
+        <v>0.9594639353490869</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.986802131800913</v>
+        <v>0.9858394921105417</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>629</v>
@@ -2924,19 +2924,19 @@
         <v>643059</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>629130</v>
+        <v>630344</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>652924</v>
+        <v>652980</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.9500872968576667</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.9295083745422777</v>
+        <v>0.9313019562616337</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.9646623070047892</v>
+        <v>0.9647453434557319</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>1138</v>
@@ -2945,19 +2945,19 @@
         <v>1132714</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>1119159</v>
+        <v>1117615</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>1145225</v>
+        <v>1145149</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.9612360803791601</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.9497328777807673</v>
+        <v>0.9484226433958647</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.9718531199161071</v>
+        <v>0.9717888184875358</v>
       </c>
     </row>
     <row r="38">
@@ -3354,7 +3354,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>5819</v>
+        <v>5530</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.0434799700497733</v>
@@ -3363,7 +3363,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2301038571679725</v>
+        <v>0.2186913772487411</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1</v>
@@ -3375,7 +3375,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>5525</v>
+        <v>5633</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.01588815857440026</v>
@@ -3384,7 +3384,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.07982791609029452</v>
+        <v>0.08139619031978526</v>
       </c>
     </row>
     <row r="6">
@@ -3461,7 +3461,7 @@
         <v>24189</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>19470</v>
+        <v>19759</v>
       </c>
       <c r="M7" s="5" t="n">
         <v>25289</v>
@@ -3470,7 +3470,7 @@
         <v>0.9565200299502267</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.7698961428320276</v>
+        <v>0.781308622751258</v>
       </c>
       <c r="P7" s="6" t="n">
         <v>1</v>
@@ -3482,7 +3482,7 @@
         <v>68107</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>63682</v>
+        <v>63574</v>
       </c>
       <c r="T7" s="5" t="n">
         <v>69207</v>
@@ -3491,7 +3491,7 @@
         <v>0.9841118414255997</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.9201720839097056</v>
+        <v>0.9186038096802147</v>
       </c>
       <c r="W7" s="6" t="n">
         <v>1</v>
@@ -3602,7 +3602,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>6912</v>
+        <v>6824</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1168536038681506</v>
@@ -3611,7 +3611,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.3656640088822416</v>
+        <v>0.3610171330181494</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>2</v>
@@ -3623,7 +3623,7 @@
         <v>0</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>7706</v>
+        <v>6707</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.0277716676373093</v>
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.09689910226785838</v>
+        <v>0.08433536819163073</v>
       </c>
     </row>
     <row r="10">
@@ -3699,7 +3699,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>7181</v>
+        <v>7220</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.03733191266226404</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1184468724486513</v>
+        <v>0.1190886557308637</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1</v>
@@ -3720,7 +3720,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>5234</v>
+        <v>5299</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.05888893275096339</v>
@@ -3729,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2768808383322872</v>
+        <v>0.2803617107668089</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>3</v>
@@ -3738,19 +3738,19 @@
         <v>3377</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1082</v>
+        <v>1061</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>9643</v>
+        <v>9652</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.04245519835766853</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.01360030173791064</v>
+        <v>0.01334004046497645</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1212502154377994</v>
+        <v>0.1213635741235545</v>
       </c>
     </row>
     <row r="12">
@@ -3767,7 +3767,7 @@
         <v>58367</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>53449</v>
+        <v>53410</v>
       </c>
       <c r="F12" s="5" t="n">
         <v>60630</v>
@@ -3776,7 +3776,7 @@
         <v>0.9626680873377359</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.8815531275513478</v>
+        <v>0.8809113442691393</v>
       </c>
       <c r="I12" s="6" t="n">
         <v>1</v>
@@ -3788,19 +3788,19 @@
         <v>15580</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>10904</v>
+        <v>10884</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>17873</v>
+        <v>17896</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.824257463380886</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.5768590131211264</v>
+        <v>0.5758225847829701</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.9455641128221436</v>
+        <v>0.9467870096520208</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>63</v>
@@ -3809,19 +3809,19 @@
         <v>73946</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>67285</v>
+        <v>68068</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>77354</v>
+        <v>77450</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.9297731340050222</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.846020525759448</v>
+        <v>0.8558622212402403</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.9726275347916423</v>
+        <v>0.9738367482691542</v>
       </c>
     </row>
     <row r="13">
@@ -3916,7 +3916,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>5039</v>
+        <v>5035</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.008361460976098214</v>
@@ -3925,7 +3925,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.04246660188970451</v>
+        <v>0.04243359194911882</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>0</v>
@@ -3950,7 +3950,7 @@
         <v>0</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>5118</v>
+        <v>5018</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.005725906679293886</v>
@@ -3959,7 +3959,7 @@
         <v>0</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.02953682905011073</v>
+        <v>0.02896324564555674</v>
       </c>
     </row>
     <row r="15">
@@ -4026,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>7272</v>
+        <v>6917</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01749639424492076</v>
@@ -4035,7 +4035,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.06128470386505786</v>
+        <v>0.05829246505572745</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>0</v>
@@ -4060,7 +4060,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>6817</v>
+        <v>7278</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01198148516831326</v>
@@ -4069,7 +4069,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03934370662543878</v>
+        <v>0.04200569765764643</v>
       </c>
     </row>
     <row r="17">
@@ -4086,19 +4086,19 @@
         <v>115585</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>109764</v>
+        <v>109789</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>117677</v>
+        <v>117689</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.974142144778981</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9250863488038666</v>
+        <v>0.9252965129600378</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9917725219613045</v>
+        <v>0.9918760615176521</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>52</v>
@@ -4120,19 +4120,19 @@
         <v>170200</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>165071</v>
+        <v>164513</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>172301</v>
+        <v>172289</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9822926081523928</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9526894014901381</v>
+        <v>0.9494730423108079</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.994418944335405</v>
+        <v>0.9943514984156561</v>
       </c>
     </row>
     <row r="18">
@@ -4224,19 +4224,19 @@
         <v>4226</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1073</v>
+        <v>1083</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>10726</v>
+        <v>10463</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01823677697958658</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.004631295926919111</v>
+        <v>0.004671359071205874</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.04628291750359551</v>
+        <v>0.04514605226323354</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>0</v>
@@ -4258,19 +4258,19 @@
         <v>4226</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>1077</v>
+        <v>1067</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>10524</v>
+        <v>10447</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.0144815931542253</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.003688587607956309</v>
+        <v>0.003657555736106685</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.03605817829317622</v>
+        <v>0.03579649788189854</v>
       </c>
     </row>
     <row r="20">
@@ -4290,7 +4290,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>15650</v>
+        <v>12150</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.01434975509740857</v>
@@ -4299,7 +4299,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.06752778297988338</v>
+        <v>0.05242718896137809</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>0</v>
@@ -4324,7 +4324,7 @@
         <v>0</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>12613</v>
+        <v>13780</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.01139495840827859</v>
@@ -4333,7 +4333,7 @@
         <v>0</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.04321673386649748</v>
+        <v>0.04721637440347783</v>
       </c>
     </row>
     <row r="21">
@@ -4350,19 +4350,19 @@
         <v>7444</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>3173</v>
+        <v>3178</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>14787</v>
+        <v>15271</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.03212104841920893</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.0136894397844914</v>
+        <v>0.01371410104300306</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.06380360804389547</v>
+        <v>0.06589234506065005</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>2</v>
@@ -4374,7 +4374,7 @@
         <v>0</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>6144</v>
+        <v>5913</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.03212883671989023</v>
@@ -4383,7 +4383,7 @@
         <v>0</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1022361616578239</v>
+        <v>0.09840141414925913</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>9</v>
@@ -4392,19 +4392,19 @@
         <v>9375</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>4169</v>
+        <v>4214</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>17667</v>
+        <v>16875</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.03212265212916153</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.01428387255205054</v>
+        <v>0.0144392050613977</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.0605336088347646</v>
+        <v>0.05782071532609508</v>
       </c>
     </row>
     <row r="22">
@@ -4421,19 +4421,19 @@
         <v>216757</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>206278</v>
+        <v>207011</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>224107</v>
+        <v>222516</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9352924195037959</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.8900751260821127</v>
+        <v>0.8932414276230571</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9670074254467551</v>
+        <v>0.9601412845547459</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>55</v>
@@ -4442,7 +4442,7 @@
         <v>58164</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>53951</v>
+        <v>54182</v>
       </c>
       <c r="M22" s="5" t="n">
         <v>60095</v>
@@ -4451,7 +4451,7 @@
         <v>0.9678711632801098</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.8977638383421764</v>
+        <v>0.9015985858507407</v>
       </c>
       <c r="P22" s="6" t="n">
         <v>1</v>
@@ -4463,19 +4463,19 @@
         <v>274921</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>263993</v>
+        <v>264876</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>282283</v>
+        <v>282357</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9420007963083346</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9045571834388703</v>
+        <v>0.9075813975472864</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9672266812697875</v>
+        <v>0.9674782516948931</v>
       </c>
     </row>
     <row r="23">
@@ -4570,7 +4570,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>7027</v>
+        <v>6354</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.0197667911048966</v>
@@ -4579,7 +4579,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.0684242824143983</v>
+        <v>0.06187103581610835</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>5</v>
@@ -4588,19 +4588,19 @@
         <v>5594</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>2106</v>
+        <v>2085</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>12554</v>
+        <v>11844</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.02969431060509148</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.01118031036990501</v>
+        <v>0.0110686702151807</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.06663689050554578</v>
+        <v>0.06286738416845852</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>7</v>
@@ -4609,19 +4609,19 @@
         <v>7624</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>3463</v>
+        <v>3148</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>15793</v>
+        <v>14925</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.02619198259969162</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.01189567927581591</v>
+        <v>0.01081318263201334</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.05425207345602593</v>
+        <v>0.05127246610257435</v>
       </c>
     </row>
     <row r="25">
@@ -4641,7 +4641,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>4396</v>
+        <v>5063</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01000230407531869</v>
@@ -4650,7 +4650,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.04280330151392419</v>
+        <v>0.04929760249622137</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>3</v>
@@ -4659,19 +4659,19 @@
         <v>3370</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>9093</v>
+        <v>9222</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.01788717522734479</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.005659608712703287</v>
+        <v>0.005650460515792976</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.04826532396495083</v>
+        <v>0.04894718284176744</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>4</v>
@@ -4680,19 +4680,19 @@
         <v>4397</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1077</v>
+        <v>1068</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>10842</v>
+        <v>10026</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01510547280367608</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.003699773257363377</v>
+        <v>0.003669964790480612</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.03724553677170393</v>
+        <v>0.03444242829057814</v>
       </c>
     </row>
     <row r="26">
@@ -4709,19 +4709,19 @@
         <v>3083</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>970</v>
+        <v>975</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>9172</v>
+        <v>8291</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.03001857654930974</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.009447891397586438</v>
+        <v>0.009490941489863508</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.08930976601088615</v>
+        <v>0.08073316927778008</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>17</v>
@@ -4730,19 +4730,19 @@
         <v>19252</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>11638</v>
+        <v>12267</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>29228</v>
+        <v>29618</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1021854832698345</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.06177174781293063</v>
+        <v>0.06511067846621739</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1551366148720761</v>
+        <v>0.1572104966138105</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>20</v>
@@ -4751,19 +4751,19 @@
         <v>22335</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>14108</v>
+        <v>14359</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>32029</v>
+        <v>32734</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.07672573187217548</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.04846674430599333</v>
+        <v>0.04932602788810432</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.110029081793701</v>
+        <v>0.1124492112955351</v>
       </c>
     </row>
     <row r="27">
@@ -4780,19 +4780,19 @@
         <v>96556</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>89992</v>
+        <v>90303</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>100610</v>
+        <v>100612</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.940212328270475</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.8762920117758914</v>
+        <v>0.8793193639989499</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.9796845842994025</v>
+        <v>0.9797083456426141</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>152</v>
@@ -4801,19 +4801,19 @@
         <v>160184</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>147520</v>
+        <v>148885</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>168843</v>
+        <v>168726</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.8502330308977293</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.7830123987914125</v>
+        <v>0.7902587027324085</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.8961932764756203</v>
+        <v>0.8955753618969855</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>242</v>
@@ -4822,19 +4822,19 @@
         <v>256740</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>244476</v>
+        <v>244610</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>267282</v>
+        <v>267027</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.8819768127244568</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.8398459030312077</v>
+        <v>0.8403063114949286</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.91819062149857</v>
+        <v>0.9173144565037668</v>
       </c>
     </row>
     <row r="28">
@@ -4939,19 +4939,19 @@
         <v>6743</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2291</v>
+        <v>2301</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>13563</v>
+        <v>13522</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.0170832312474859</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.005804872522131031</v>
+        <v>0.005829155254849953</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.03436137555180521</v>
+        <v>0.03425792351311462</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6</v>
@@ -4960,19 +4960,19 @@
         <v>6743</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>2379</v>
+        <v>2267</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>13507</v>
+        <v>13166</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.01699763144203918</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.005996097271472221</v>
+        <v>0.005714898345253152</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.03404971018501866</v>
+        <v>0.03318952801510207</v>
       </c>
     </row>
     <row r="30">
@@ -5002,19 +5002,19 @@
         <v>9554</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>4330</v>
+        <v>4253</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>18814</v>
+        <v>18228</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.02420520083852423</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.01097150925987786</v>
+        <v>0.01077590820968683</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.04766669848833437</v>
+        <v>0.04618057226264196</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>8</v>
@@ -5023,19 +5023,19 @@
         <v>9554</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>4349</v>
+        <v>4283</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>19180</v>
+        <v>19006</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.02408391462208425</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.01096279559936832</v>
+        <v>0.010796172346859</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.04835014240605857</v>
+        <v>0.04791036616345576</v>
       </c>
     </row>
     <row r="31">
@@ -5065,19 +5065,19 @@
         <v>14709</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>8269</v>
+        <v>8406</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>23365</v>
+        <v>23502</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.03726661316718639</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.02095061965895127</v>
+        <v>0.02129815296104515</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.05919503672075584</v>
+        <v>0.05954288049099913</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>14</v>
@@ -5086,19 +5086,19 @@
         <v>14709</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>8435</v>
+        <v>8476</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>23923</v>
+        <v>23983</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.03707987947550034</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.0212632303354608</v>
+        <v>0.02136719532777416</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.06030521199767692</v>
+        <v>0.06045825909317092</v>
       </c>
     </row>
     <row r="32">
@@ -5128,19 +5128,19 @@
         <v>363698</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>350076</v>
+        <v>352283</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>372544</v>
+        <v>373215</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.9214449547468034</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.8869335866713612</v>
+        <v>0.8925243130894376</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.9438564088851397</v>
+        <v>0.9455567082014367</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>342</v>
@@ -5149,19 +5149,19 @@
         <v>365686</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>353604</v>
+        <v>353303</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>375554</v>
+        <v>375421</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.9218385744603762</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.8913808568705505</v>
+        <v>0.8906226298903605</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.9467146987592677</v>
+        <v>0.9463781605331116</v>
       </c>
     </row>
     <row r="33">
@@ -5253,19 +5253,19 @@
         <v>7249</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>3056</v>
+        <v>3102</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>13613</v>
+        <v>13701</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.01295215736473482</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.005459942879055296</v>
+        <v>0.005542209316306538</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.02432489999664739</v>
+        <v>0.02448245978475737</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>13</v>
@@ -5274,19 +5274,19 @@
         <v>14546</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>8004</v>
+        <v>7825</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>24588</v>
+        <v>23485</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.0196035828581454</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.01078755978066146</v>
+        <v>0.01054583122490388</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.03313738284562812</v>
+        <v>0.03165035345790053</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>20</v>
@@ -5295,19 +5295,19 @@
         <v>21794</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>14200</v>
+        <v>13731</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>33211</v>
+        <v>32385</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.01674382264641692</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.01090950254112927</v>
+        <v>0.01054925975846228</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.02551476238647852</v>
+        <v>0.02487997750711849</v>
       </c>
     </row>
     <row r="35">
@@ -5324,19 +5324,19 @@
         <v>4353</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>1038</v>
+        <v>1034</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>13081</v>
+        <v>13226</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.007777882856505802</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.001855157322663692</v>
+        <v>0.001848024560781674</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.02337347154135096</v>
+        <v>0.02363329329950233</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>12</v>
@@ -5345,19 +5345,19 @@
         <v>14023</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>7372</v>
+        <v>7758</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>23572</v>
+        <v>23706</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.01889935269480515</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.009935086549066999</v>
+        <v>0.01045536165389842</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.03176742363974623</v>
+        <v>0.03194837277872777</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>15</v>
@@ -5366,19 +5366,19 @@
         <v>18376</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>10042</v>
+        <v>10641</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>30305</v>
+        <v>30440</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.01411771047825847</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.007714851809246866</v>
+        <v>0.008174948171284713</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.02328234623587444</v>
+        <v>0.02338606876798841</v>
       </c>
     </row>
     <row r="36">
@@ -5395,19 +5395,19 @@
         <v>14866</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>8450</v>
+        <v>8357</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>24359</v>
+        <v>25706</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.02656427670902785</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.01509991251247086</v>
+        <v>0.01493308215868145</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.04352664901295304</v>
+        <v>0.04593339760845548</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>34</v>
@@ -5416,19 +5416,19 @@
         <v>37005</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>26051</v>
+        <v>27133</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>49855</v>
+        <v>50820</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.04987156741458856</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.03510869763406826</v>
+        <v>0.03656680200584021</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.06718901565650683</v>
+        <v>0.06849015108859523</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>48</v>
@@ -5437,19 +5437,19 @@
         <v>51871</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>39469</v>
+        <v>38826</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>68486</v>
+        <v>67564</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.03985066848563214</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.03032277145700165</v>
+        <v>0.02982882536666535</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.0526148896320625</v>
+        <v>0.05190694157964394</v>
       </c>
     </row>
     <row r="37">
@@ -5466,19 +5466,19 @@
         <v>533169</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>521035</v>
+        <v>520565</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>542009</v>
+        <v>541850</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.9527056830697316</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.9310239410673773</v>
+        <v>0.9301838783279787</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.9685014716999826</v>
+        <v>0.9682166446711699</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>634</v>
@@ -5487,19 +5487,19 @@
         <v>676431</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>657798</v>
+        <v>659603</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>691384</v>
+        <v>690844</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.9116254970324609</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.8865147205182266</v>
+        <v>0.8889467818392413</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.9317778941835415</v>
+        <v>0.9310510036328901</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>1114</v>
@@ -5508,19 +5508,19 @@
         <v>1209600</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>1188263</v>
+        <v>1188637</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>1226090</v>
+        <v>1226111</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.9292877983896924</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.9128957851497855</v>
+        <v>0.9131827348891821</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.9419566104265782</v>
+        <v>0.9419726828616415</v>
       </c>
     </row>
     <row r="38">
@@ -5951,7 +5951,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>7078</v>
+        <v>7584</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.02290312290990164</v>
@@ -5960,7 +5960,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1031144143232646</v>
+        <v>0.110478651515021</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>1</v>
@@ -5972,7 +5972,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>6966</v>
+        <v>6476</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.03729599306543466</v>
@@ -5981,7 +5981,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1888309395310173</v>
+        <v>0.1755555548761533</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>2</v>
@@ -5993,7 +5993,7 @@
         <v>0</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>10696</v>
+        <v>10199</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.02793393856037155</v>
@@ -6002,7 +6002,7 @@
         <v>0</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1013510110407438</v>
+        <v>0.09664560434800373</v>
       </c>
     </row>
     <row r="7">
@@ -6019,7 +6019,7 @@
         <v>67075</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>61569</v>
+        <v>61063</v>
       </c>
       <c r="F7" s="5" t="n">
         <v>68647</v>
@@ -6028,7 +6028,7 @@
         <v>0.9770968770900984</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.896885585676736</v>
+        <v>0.889521348484979</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>1</v>
@@ -6040,7 +6040,7 @@
         <v>35512</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>29922</v>
+        <v>30412</v>
       </c>
       <c r="M7" s="5" t="n">
         <v>36888</v>
@@ -6049,7 +6049,7 @@
         <v>0.9627040069345654</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.8111690604689827</v>
+        <v>0.8244444451238445</v>
       </c>
       <c r="P7" s="6" t="n">
         <v>1</v>
@@ -6061,7 +6061,7 @@
         <v>102587</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>94839</v>
+        <v>95336</v>
       </c>
       <c r="T7" s="5" t="n">
         <v>105535</v>
@@ -6070,7 +6070,7 @@
         <v>0.9720660614396285</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.8986489889592556</v>
+        <v>0.9033543956519968</v>
       </c>
       <c r="W7" s="6" t="n">
         <v>1</v>
@@ -6168,7 +6168,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>3833</v>
+        <v>4656</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.01709365262730424</v>
@@ -6177,7 +6177,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.0718568759960312</v>
+        <v>0.08728094214505915</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>0</v>
@@ -6202,7 +6202,7 @@
         <v>0</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>3888</v>
+        <v>5185</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.01285514895598794</v>
@@ -6211,7 +6211,7 @@
         <v>0</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.05481197258294829</v>
+        <v>0.07309532540556307</v>
       </c>
     </row>
     <row r="10">
@@ -6231,7 +6231,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>5761</v>
+        <v>5747</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03555077821988259</v>
@@ -6240,7 +6240,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1079889491099074</v>
+        <v>0.1077381713306777</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>0</v>
@@ -6265,7 +6265,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>5928</v>
+        <v>6514</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02673568718647557</v>
@@ -6274,7 +6274,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.08357343941602668</v>
+        <v>0.09183657761362445</v>
       </c>
     </row>
     <row r="11">
@@ -6338,19 +6338,19 @@
         <v>50536</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>46170</v>
+        <v>46637</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>52457</v>
+        <v>52468</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.9473555691528132</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.865523386149009</v>
+        <v>0.874274004549139</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9833778569893306</v>
+        <v>0.9835700001342316</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>14</v>
@@ -6372,19 +6372,19 @@
         <v>68124</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>63978</v>
+        <v>63127</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>70057</v>
+        <v>70051</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.9604091638575365</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.9019621035187162</v>
+        <v>0.8899664393800747</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.9876681636722815</v>
+        <v>0.9875846899119959</v>
       </c>
     </row>
     <row r="13">
@@ -6479,7 +6479,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>4527</v>
+        <v>4662</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.007419590169216484</v>
@@ -6488,7 +6488,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.03764191152886145</v>
+        <v>0.03876771360308678</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>0</v>
@@ -6513,7 +6513,7 @@
         <v>0</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>4491</v>
+        <v>5395</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.005360054184697013</v>
@@ -6522,7 +6522,7 @@
         <v>0</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.02697575131453833</v>
+        <v>0.03240692223119501</v>
       </c>
     </row>
     <row r="15">
@@ -6555,7 +6555,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>5338</v>
+        <v>5559</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.02569218546758745</v>
@@ -6564,7 +6564,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1155133001809109</v>
+        <v>0.1202940425301047</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>1</v>
@@ -6576,7 +6576,7 @@
         <v>0</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>5939</v>
+        <v>6059</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.00713165812189763</v>
@@ -6585,7 +6585,7 @@
         <v>0</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.03567499738838755</v>
+        <v>0.03639651548816037</v>
       </c>
     </row>
     <row r="16">
@@ -6605,7 +6605,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>6733</v>
+        <v>7865</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01691682238986826</v>
@@ -6614,7 +6614,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.05598755498661388</v>
+        <v>0.06539967447431561</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1</v>
@@ -6626,7 +6626,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>5042</v>
+        <v>6086</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02236570439478187</v>
@@ -6635,7 +6635,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1091027809313549</v>
+        <v>0.1317098939985178</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>3</v>
@@ -6644,19 +6644,19 @@
         <v>3068</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>775</v>
+        <v>783</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>8121</v>
+        <v>8457</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01842932756988216</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.004658405934658241</v>
+        <v>0.00470409865172408</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04878089570035967</v>
+        <v>0.05080334683119358</v>
       </c>
     </row>
     <row r="17">
@@ -6673,19 +6673,19 @@
         <v>117334</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>111561</v>
+        <v>111546</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>119475</v>
+        <v>119478</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9756635874409153</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9276562042200143</v>
+        <v>0.9275309367872139</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9934665763551344</v>
+        <v>0.9934856314092657</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>35</v>
@@ -6694,7 +6694,7 @@
         <v>43988</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>39169</v>
+        <v>38304</v>
       </c>
       <c r="M17" s="5" t="n">
         <v>46209</v>
@@ -6703,7 +6703,7 @@
         <v>0.9519421101376306</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8476442804218884</v>
+        <v>0.8289381588513557</v>
       </c>
       <c r="P17" s="6" t="n">
         <v>1</v>
@@ -6715,19 +6715,19 @@
         <v>161323</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>155312</v>
+        <v>155552</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>164559</v>
+        <v>164710</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9690789601235232</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9329714164322314</v>
+        <v>0.9344150107143692</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.988521620564957</v>
+        <v>0.9894298098844481</v>
       </c>
     </row>
     <row r="18">
@@ -6866,19 +6866,19 @@
         <v>2480</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>7242</v>
+        <v>6739</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.01216402582270188</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.003954446078107094</v>
+        <v>0.003962058769384287</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.03552577388087629</v>
+        <v>0.03305542008121724</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>0</v>
@@ -6900,19 +6900,19 @@
         <v>2480</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>802</v>
+        <v>0</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>6441</v>
+        <v>6536</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.008186505096702412</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.002648529576030378</v>
+        <v>0</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.0212631397613247</v>
+        <v>0.02157887175839378</v>
       </c>
     </row>
     <row r="21">
@@ -6929,19 +6929,19 @@
         <v>4171</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>1603</v>
+        <v>1628</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>9411</v>
+        <v>9255</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.02046290966983099</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.007861994670329319</v>
+        <v>0.007985290817979203</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.04616415603661748</v>
+        <v>0.04539857121844999</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>3</v>
@@ -6950,19 +6950,19 @@
         <v>3989</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>1269</v>
+        <v>1236</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>10742</v>
+        <v>10538</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.04027228980311799</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.01281548327998097</v>
+        <v>0.01248330020548107</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1084579534353884</v>
+        <v>0.1063984195505058</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>8</v>
@@ -6971,19 +6971,19 @@
         <v>8160</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>3560</v>
+        <v>3741</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>16296</v>
+        <v>16021</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.02694038852410144</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.01175266520421103</v>
+        <v>0.0123493889676162</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.05380116886417392</v>
+        <v>0.05289215868593644</v>
       </c>
     </row>
     <row r="22">
@@ -7000,19 +7000,19 @@
         <v>197205</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>191299</v>
+        <v>191440</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>200591</v>
+        <v>200651</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9673730645074672</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9384013719184042</v>
+        <v>0.9390951529754149</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9839843706309258</v>
+        <v>0.9842778290241587</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>81</v>
@@ -7021,19 +7021,19 @@
         <v>95057</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>88304</v>
+        <v>88508</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>97777</v>
+        <v>97810</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.959727710196882</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.8915420465646122</v>
+        <v>0.8936015804494942</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9871845167200191</v>
+        <v>0.9875166997945188</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>291</v>
@@ -7042,19 +7042,19 @@
         <v>292262</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>283646</v>
+        <v>284580</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>297209</v>
+        <v>297509</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9648731063791961</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9364295894001345</v>
+        <v>0.939512549575267</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9812050218568901</v>
+        <v>0.9821965027480877</v>
       </c>
     </row>
     <row r="23">
@@ -7149,7 +7149,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>4495</v>
+        <v>3626</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.006144357433671178</v>
@@ -7158,7 +7158,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.03094954370861414</v>
+        <v>0.0249703265808106</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>1</v>
@@ -7170,7 +7170,7 @@
         <v>0</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>7739</v>
+        <v>6785</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.008442735325471316</v>
@@ -7179,7 +7179,7 @@
         <v>0</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.04850817479937208</v>
+        <v>0.04252844347370387</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>2</v>
@@ -7191,7 +7191,7 @@
         <v>0</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>8769</v>
+        <v>8113</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.007347578005445154</v>
@@ -7200,7 +7200,7 @@
         <v>0</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.02877358008181318</v>
+        <v>0.02662099666653163</v>
       </c>
     </row>
     <row r="25">
@@ -7217,19 +7217,19 @@
         <v>2539</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>6761</v>
+        <v>7777</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01748433228767486</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.005519004060349991</v>
+        <v>0.005530041097858766</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.04655679241198598</v>
+        <v>0.05355589461737369</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>0</v>
@@ -7254,16 +7254,16 @@
         <v>800</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>6955</v>
+        <v>6977</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.00833113412678178</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.002623694174592456</v>
+        <v>0.002623475447485605</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.02282101175942058</v>
+        <v>0.02289408261371482</v>
       </c>
     </row>
     <row r="26">
@@ -7280,19 +7280,19 @@
         <v>2432</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>6514</v>
+        <v>6459</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.01674903443189732</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.005227108430863815</v>
+        <v>0.005208952591692489</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.04485521237361831</v>
+        <v>0.04447598447744704</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>9</v>
@@ -7301,19 +7301,19 @@
         <v>11395</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>5106</v>
+        <v>5138</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>20131</v>
+        <v>20154</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.07142040209212805</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.03200521922639129</v>
+        <v>0.03220277098913028</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1261723103725854</v>
+        <v>0.1263149713085178</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>12</v>
@@ -7322,19 +7322,19 @@
         <v>13827</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>7641</v>
+        <v>7108</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>22905</v>
+        <v>24260</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.04536996508498783</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.02507174321729623</v>
+        <v>0.02332290379350312</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.07515594970617266</v>
+        <v>0.07960041707912283</v>
       </c>
     </row>
     <row r="27">
@@ -7351,19 +7351,19 @@
         <v>139357</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>133544</v>
+        <v>133391</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>142788</v>
+        <v>142674</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.9596222758467566</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.9195898160723792</v>
+        <v>0.9185397911609546</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.9832462047397076</v>
+        <v>0.9824584441807308</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>129</v>
@@ -7372,19 +7372,19 @@
         <v>146808</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>137706</v>
+        <v>137883</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>153232</v>
+        <v>153308</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.9201368625824007</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.8630888258769102</v>
+        <v>0.8641990089639677</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.9604010906855215</v>
+        <v>0.9608799316917005</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>281</v>
@@ -7393,19 +7393,19 @@
         <v>286165</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>275081</v>
+        <v>275655</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>293346</v>
+        <v>293563</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.9389513227827853</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.9025834454980092</v>
+        <v>0.9044653171888793</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.9625143808264033</v>
+        <v>0.9632235798295977</v>
       </c>
     </row>
     <row r="28">
@@ -7506,19 +7506,19 @@
         <v>8188</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3270</v>
+        <v>3324</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>18178</v>
+        <v>16684</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.0198225522028485</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.007915973110308502</v>
+        <v>0.008045748979132489</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.04400605280001293</v>
+        <v>0.04038814375276401</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6</v>
@@ -7527,19 +7527,19 @@
         <v>8188</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>3270</v>
+        <v>3324</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>18178</v>
+        <v>16684</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.0198225522028485</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.007915973110308502</v>
+        <v>0.008045748979132489</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.04400605280001293</v>
+        <v>0.04038814375276401</v>
       </c>
     </row>
     <row r="30">
@@ -7565,19 +7565,19 @@
         <v>3435</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>956</v>
+        <v>967</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>9520</v>
+        <v>9651</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.008316343094794973</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.002313567282931106</v>
+        <v>0.002341842504104384</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.02304622401470929</v>
+        <v>0.02336233180639541</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>3</v>
@@ -7586,19 +7586,19 @@
         <v>3435</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>956</v>
+        <v>967</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>9520</v>
+        <v>9651</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.008316343094794973</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.002313567282931106</v>
+        <v>0.002341842504104384</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.02304622401470929</v>
+        <v>0.02336233180639541</v>
       </c>
     </row>
     <row r="31">
@@ -7624,19 +7624,19 @@
         <v>14487</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>7568</v>
+        <v>7741</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>24563</v>
+        <v>25039</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.03507024423544227</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.01832033930050304</v>
+        <v>0.0187387531115573</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.05946279142218977</v>
+        <v>0.06061496188883018</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>12</v>
@@ -7645,19 +7645,19 @@
         <v>14487</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>7568</v>
+        <v>7741</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>24563</v>
+        <v>25039</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.03507024423544227</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.01832033930050304</v>
+        <v>0.0187387531115573</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.05946279142218977</v>
+        <v>0.06061496188883018</v>
       </c>
     </row>
     <row r="32">
@@ -7683,19 +7683,19 @@
         <v>386972</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>375562</v>
+        <v>373772</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>396948</v>
+        <v>396799</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.9367908604669143</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.9091692235923565</v>
+        <v>0.904835253801364</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.9609389990704514</v>
+        <v>0.9605798776762338</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>326</v>
@@ -7704,19 +7704,19 @@
         <v>386972</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>375562</v>
+        <v>373772</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>396948</v>
+        <v>396799</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.9367908604669143</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.9091692235923565</v>
+        <v>0.904835253801364</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.9609389990704514</v>
+        <v>0.9605798776762338</v>
       </c>
     </row>
     <row r="33">
@@ -7796,19 +7796,19 @@
         <v>2696</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>7315</v>
+        <v>7194</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.004559933221110048</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.001501138794234005</v>
+        <v>0.001505000536003115</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.01237109099482628</v>
+        <v>0.01216575661253567</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>7</v>
@@ -7817,19 +7817,19 @@
         <v>9535</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>3863</v>
+        <v>3879</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>20361</v>
+        <v>19288</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.01234572483445763</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.005001679910786131</v>
+        <v>0.005022297179394939</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.02636157677988384</v>
+        <v>0.02497307190846739</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>10</v>
@@ -7838,19 +7838,19 @@
         <v>12232</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>5887</v>
+        <v>6014</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>22787</v>
+        <v>21694</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.008969627676537527</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.004316874542850692</v>
+        <v>0.004410072640387443</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.01670991528381956</v>
+        <v>0.01590822790477222</v>
       </c>
     </row>
     <row r="35">
@@ -7867,19 +7867,19 @@
         <v>6915</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>3348</v>
+        <v>3382</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>13934</v>
+        <v>13187</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.01169436586092348</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.005661516940281761</v>
+        <v>0.005718775395997295</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.02356462775475779</v>
+        <v>0.02229989872913645</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>4</v>
@@ -7888,19 +7888,19 @@
         <v>4623</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>1217</v>
+        <v>1223</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>11170</v>
+        <v>12146</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.005984929613294681</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.001575256444633695</v>
+        <v>0.001584016951496385</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.01446262976783706</v>
+        <v>0.01572631373712164</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>12</v>
@@ -7909,19 +7909,19 @@
         <v>11538</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>6265</v>
+        <v>6361</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>20647</v>
+        <v>20712</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.00846067163750972</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.004594026045137332</v>
+        <v>0.00466433971361054</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.01514055695374083</v>
+        <v>0.01518854520191326</v>
       </c>
     </row>
     <row r="36">
@@ -7938,19 +7938,19 @@
         <v>10210</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>5261</v>
+        <v>5230</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>18103</v>
+        <v>18050</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.01726697693006572</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.008896234329207433</v>
+        <v>0.008844077248536149</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.03061389740223028</v>
+        <v>0.03052483734291439</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>26</v>
@@ -7959,19 +7959,19 @@
         <v>32280</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>21513</v>
+        <v>21229</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>45815</v>
+        <v>46546</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.04179393477580998</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.02785292424880703</v>
+        <v>0.02748538974120216</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.05931787413273363</v>
+        <v>0.06026414071017349</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>37</v>
@@ -7980,19 +7980,19 @@
         <v>42491</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>30416</v>
+        <v>30716</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>59669</v>
+        <v>58244</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.03115848538444868</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.02230386765804287</v>
+        <v>0.02252441112938545</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.04375518200723568</v>
+        <v>0.04271065929187211</v>
       </c>
     </row>
     <row r="37">
@@ -8009,19 +8009,19 @@
         <v>571506</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>561227</v>
+        <v>561678</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>578752</v>
+        <v>578810</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.9664787239879008</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.9490960542616396</v>
+        <v>0.9498580257438826</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.9787323135883803</v>
+        <v>0.9788306369316603</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>613</v>
@@ -8030,19 +8030,19 @@
         <v>725926</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>709919</v>
+        <v>708671</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>738511</v>
+        <v>739551</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.9398754107764377</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.9191503715907088</v>
+        <v>0.917535338822022</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.9561695346914734</v>
+        <v>0.9575165780991758</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>1218</v>
@@ -8051,19 +8051,19 @@
         <v>1297432</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>1279301</v>
+        <v>1278261</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>1312970</v>
+        <v>1312356</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.9514112153015041</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.9381154566618503</v>
+        <v>0.93735293374517</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.9628054842636407</v>
+        <v>0.9623549861077406</v>
       </c>
     </row>
     <row r="38">
@@ -8507,7 +8507,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>2746</v>
+        <v>3330</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.01203451534355258</v>
@@ -8516,7 +8516,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.03682876093663116</v>
+        <v>0.04466843709284729</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>2</v>
@@ -8528,7 +8528,7 @@
         <v>0</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>3054</v>
+        <v>3199</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.004602386047622606</v>
@@ -8537,7 +8537,7 @@
         <v>0</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.0156669118033563</v>
+        <v>0.01640752974178921</v>
       </c>
     </row>
     <row r="7">
@@ -8567,7 +8567,7 @@
         <v>73662</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>71813</v>
+        <v>71229</v>
       </c>
       <c r="M7" s="5" t="n">
         <v>74559</v>
@@ -8576,7 +8576,7 @@
         <v>0.9879654846564475</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.9631712390633689</v>
+        <v>0.9553315629071523</v>
       </c>
       <c r="P7" s="6" t="n">
         <v>1</v>
@@ -8588,7 +8588,7 @@
         <v>194063</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>191906</v>
+        <v>191761</v>
       </c>
       <c r="T7" s="5" t="n">
         <v>194960</v>
@@ -8597,7 +8597,7 @@
         <v>0.9953976139523775</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.9843330881966418</v>
+        <v>0.9835924702582117</v>
       </c>
       <c r="W7" s="6" t="n">
         <v>1</v>
@@ -8708,7 +8708,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>3004</v>
+        <v>2941</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.01055413333959342</v>
@@ -8717,7 +8717,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.05457416064498337</v>
+        <v>0.05342721983682575</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>1</v>
@@ -8729,7 +8729,7 @@
         <v>0</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>3656</v>
+        <v>2913</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.003636174188586755</v>
@@ -8738,7 +8738,7 @@
         <v>0</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.02288394183532557</v>
+        <v>0.01823598755117688</v>
       </c>
     </row>
     <row r="10">
@@ -8771,7 +8771,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>1646</v>
+        <v>2181</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.007236558135020328</v>
@@ -8780,7 +8780,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02991348249426409</v>
+        <v>0.03962182326024861</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>2040</v>
+        <v>2021</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.002493183007841561</v>
@@ -8801,7 +8801,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01276997916252136</v>
+        <v>0.01265112395516345</v>
       </c>
     </row>
     <row r="11">
@@ -8821,7 +8821,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>3343</v>
+        <v>3197</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.005707528869803368</v>
@@ -8830,7 +8830,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.03192522197005269</v>
+        <v>0.03053394305393502</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1</v>
@@ -8842,7 +8842,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>3364</v>
+        <v>3238</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.01193256268262691</v>
@@ -8851,7 +8851,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.06112375265576525</v>
+        <v>0.05883080400361586</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>2</v>
@@ -8863,7 +8863,7 @@
         <v>0</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>4465</v>
+        <v>4425</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.007852215367969284</v>
@@ -8872,7 +8872,7 @@
         <v>0</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.02794730051759193</v>
+        <v>0.02770066852560569</v>
       </c>
     </row>
     <row r="12">
@@ -8889,16 +8889,16 @@
         <v>104117</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>101372</v>
+        <v>101518</v>
       </c>
       <c r="F12" s="5" t="n">
         <v>104715</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.9942924711301968</v>
+        <v>0.9942924711301965</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.968074778029947</v>
+        <v>0.9694660569460636</v>
       </c>
       <c r="I12" s="6" t="n">
         <v>1</v>
@@ -8910,19 +8910,19 @@
         <v>53404</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>50380</v>
+        <v>50619</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>54649</v>
+        <v>54651</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.9702767458427592</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.9153268353519711</v>
+        <v>0.9196679892891568</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.9928890316771269</v>
+        <v>0.9929289919876999</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>240</v>
@@ -8931,19 +8931,19 @@
         <v>157521</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>153957</v>
+        <v>154253</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>159165</v>
+        <v>159166</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.9860184274356022</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.963704780864704</v>
+        <v>0.9655572009873472</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.9963042020465455</v>
+        <v>0.9963154959338389</v>
       </c>
     </row>
     <row r="13">
@@ -9038,7 +9038,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2950</v>
+        <v>3013</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.007291245269198813</v>
@@ -9047,7 +9047,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.02623065987487393</v>
+        <v>0.02679206263211431</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>0</v>
@@ -9072,16 +9072,16 @@
         <v>0</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>2940</v>
+        <v>2738</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.004811354703868541</v>
+        <v>0.00481135470386854</v>
       </c>
       <c r="V14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.0172499213887314</v>
+        <v>0.01606531078705244</v>
       </c>
     </row>
     <row r="15">
@@ -9145,19 +9145,19 @@
         <v>2826</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>692</v>
+        <v>678</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>6588</v>
+        <v>7280</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.02512233187123031</v>
+        <v>0.0251223318712303</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.006151331588801631</v>
+        <v>0.006024666541503115</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.05857502392783254</v>
+        <v>0.0647300804629256</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2</v>
@@ -9169,7 +9169,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>4916</v>
+        <v>4729</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02422046068029293</v>
@@ -9178,7 +9178,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.08480631344826738</v>
+        <v>0.08156988169333129</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>6</v>
@@ -9187,19 +9187,19 @@
         <v>4230</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1345</v>
+        <v>1500</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>8480</v>
+        <v>9037</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.02481558840355452</v>
+        <v>0.02481558840355451</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.007893323125876615</v>
+        <v>0.008800217655452894</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04975082099358252</v>
+        <v>0.05302305123904475</v>
       </c>
     </row>
     <row r="17">
@@ -9216,19 +9216,19 @@
         <v>108825</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>104711</v>
+        <v>104759</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>111128</v>
+        <v>111144</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9675864228595707</v>
+        <v>0.9675864228595709</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9310066781026296</v>
+        <v>0.9314341765105614</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9880594981897862</v>
+        <v>0.9881992437404672</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>104</v>
@@ -9237,16 +9237,16 @@
         <v>56566</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>53054</v>
+        <v>53241</v>
       </c>
       <c r="M17" s="5" t="n">
         <v>57970</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.9757795393197072</v>
+        <v>0.9757795393197071</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9151936865517333</v>
+        <v>0.9184301183066693</v>
       </c>
       <c r="P17" s="6" t="n">
         <v>1</v>
@@ -9258,19 +9258,19 @@
         <v>165391</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>160972</v>
+        <v>160672</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>168423</v>
+        <v>168289</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.9703730568925771</v>
+        <v>0.9703730568925769</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9444463672317087</v>
+        <v>0.942681737629426</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.988160047639509</v>
+        <v>0.9873744944294696</v>
       </c>
     </row>
     <row r="18">
@@ -9365,7 +9365,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>1556</v>
+        <v>1723</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.001318605424989501</v>
@@ -9374,7 +9374,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.005997768239030993</v>
+        <v>0.006640765781943706</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>1</v>
@@ -9386,7 +9386,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>1434</v>
+        <v>1594</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.002391111056246076</v>
@@ -9395,7 +9395,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.01096030855812557</v>
+        <v>0.01217532107566779</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>2</v>
@@ -9407,7 +9407,7 @@
         <v>0</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>2223</v>
+        <v>2256</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.001678172960693484</v>
@@ -9416,7 +9416,7 @@
         <v>0</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.005693544152051278</v>
+        <v>0.00577783692716005</v>
       </c>
     </row>
     <row r="20">
@@ -9433,19 +9433,19 @@
         <v>3176</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>900</v>
+        <v>896</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>7339</v>
+        <v>8272</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.0122368267657457</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.003467233198048656</v>
+        <v>0.003453725843991368</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.02828034975874818</v>
+        <v>0.03187647535648945</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>2</v>
@@ -9457,7 +9457,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>3319</v>
+        <v>3648</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.007829605364191739</v>
@@ -9466,7 +9466,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.02536248473133063</v>
+        <v>0.02787450619117363</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>6</v>
@@ -9475,19 +9475,19 @@
         <v>4200</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1559</v>
+        <v>1880</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>8973</v>
+        <v>8836</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.01075926460432195</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.003992574658821051</v>
+        <v>0.00481650834100992</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.02298428353749963</v>
+        <v>0.02263284742708351</v>
       </c>
     </row>
     <row r="21">
@@ -9504,19 +9504,19 @@
         <v>7507</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>3679</v>
+        <v>3584</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>13007</v>
+        <v>13265</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.02892760547499735</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.01417640808914977</v>
+        <v>0.01381054318019994</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.05012444905102383</v>
+        <v>0.05111537182242808</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>8</v>
@@ -9525,19 +9525,19 @@
         <v>4035</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>1865</v>
+        <v>1685</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>7923</v>
+        <v>7728</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.03083021956904256</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.01424846873392804</v>
+        <v>0.01287503397576757</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.06053340112526896</v>
+        <v>0.05904608792973264</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>19</v>
@@ -9546,19 +9546,19 @@
         <v>11542</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>7419</v>
+        <v>7067</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>18824</v>
+        <v>18352</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.02956547463041612</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.01900346182152273</v>
+        <v>0.0181026533212485</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.04821926296955287</v>
+        <v>0.04700942372890547</v>
       </c>
     </row>
     <row r="22">
@@ -9575,19 +9575,19 @@
         <v>248479</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>241579</v>
+        <v>241818</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>252909</v>
+        <v>253246</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.9575169623342673</v>
+        <v>0.9575169623342675</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9309276744632015</v>
+        <v>0.9318468958864481</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9745866553095252</v>
+        <v>0.9758863106875174</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>248</v>
@@ -9596,19 +9596,19 @@
         <v>125507</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>121268</v>
+        <v>121675</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>127937</v>
+        <v>128327</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.9589490640105196</v>
+        <v>0.9589490640105195</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.9265585744031214</v>
+        <v>0.9296713638615292</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.977510879484463</v>
+        <v>0.9804919074629104</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>602</v>
@@ -9617,19 +9617,19 @@
         <v>373987</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>365811</v>
+        <v>366381</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>379333</v>
+        <v>379367</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9579970878045683</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9370543924360394</v>
+        <v>0.9385149600135527</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9716922771544627</v>
+        <v>0.9717778419162569</v>
       </c>
     </row>
     <row r="23">
@@ -9724,16 +9724,16 @@
         <v>0</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>3519</v>
+        <v>3918</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.009437127713181051</v>
+        <v>0.009437127713181052</v>
       </c>
       <c r="H24" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.03491096501182114</v>
+        <v>0.03886757346537786</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>9</v>
@@ -9742,19 +9742,19 @@
         <v>4466</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>2166</v>
+        <v>2206</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>8588</v>
+        <v>8832</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.02027964732032293</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.009832801768201607</v>
+        <v>0.01001730230992442</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.03899096037339523</v>
+        <v>0.04010307770916186</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>11</v>
@@ -9763,19 +9763,19 @@
         <v>5418</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>2790</v>
+        <v>2780</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>9792</v>
+        <v>9401</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.01687551258009397</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.008689067828645709</v>
+        <v>0.008659320660304268</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.03049964509104401</v>
+        <v>0.02928318848092666</v>
       </c>
     </row>
     <row r="25">
@@ -9805,19 +9805,19 @@
         <v>2317</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>648</v>
+        <v>686</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>5153</v>
+        <v>5598</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.01051891696677907</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.002943164823643748</v>
+        <v>0.003112470923981269</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.02339464952359088</v>
+        <v>0.02541649229520806</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>4</v>
@@ -9826,19 +9826,19 @@
         <v>2317</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>643</v>
+        <v>664</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>5327</v>
+        <v>5515</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.007216381027382648</v>
+        <v>0.007216381027382647</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.002004130289698731</v>
+        <v>0.002066892597571432</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.01659377196836391</v>
+        <v>0.01717917454454267</v>
       </c>
     </row>
     <row r="26">
@@ -9855,19 +9855,19 @@
         <v>1801</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>412</v>
+        <v>485</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>5314</v>
+        <v>6035</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.01786634043609907</v>
+        <v>0.01786634043609908</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.004086069800786599</v>
+        <v>0.004809655011614311</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.05272594405130124</v>
+        <v>0.05987560699796128</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>30</v>
@@ -9876,19 +9876,19 @@
         <v>14253</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>10115</v>
+        <v>9726</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>20364</v>
+        <v>19739</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.06471435756744254</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.04592810485188707</v>
+        <v>0.04415972194828362</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.09246295880789555</v>
+        <v>0.08962424640658299</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>33</v>
@@ -9897,19 +9897,19 @@
         <v>16054</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>11124</v>
+        <v>11594</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>22352</v>
+        <v>23200</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.05000587942712158</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.0346510786388065</v>
+        <v>0.03611432806434299</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.0696254144882392</v>
+        <v>0.07226703569758736</v>
       </c>
     </row>
     <row r="27">
@@ -9926,19 +9926,19 @@
         <v>98041</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>93932</v>
+        <v>93772</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>99915</v>
+        <v>99784</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.9726965318507197</v>
+        <v>0.9726965318507199</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.9319344109575904</v>
+        <v>0.9303463873951578</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.9912905930028971</v>
+        <v>0.9899894633616708</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>400</v>
@@ -9947,19 +9947,19 @@
         <v>199208</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>192402</v>
+        <v>192323</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>204423</v>
+        <v>204871</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>0.9044870781454554</v>
+        <v>0.9044870781454555</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.8735834933661742</v>
+        <v>0.8732290972540793</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.9281652242416139</v>
+        <v>0.9302018442969536</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>543</v>
@@ -9968,19 +9968,19 @@
         <v>297249</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>290134</v>
+        <v>289982</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>303607</v>
+        <v>303430</v>
       </c>
       <c r="U27" s="6" t="n">
-        <v>0.9259022269654017</v>
+        <v>0.9259022269654018</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.9037398952165717</v>
+        <v>0.9032681368921343</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.9457065032905947</v>
+        <v>0.9451560119901257</v>
       </c>
     </row>
     <row r="28">
@@ -10085,19 +10085,19 @@
         <v>6634</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3302</v>
+        <v>3152</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>11753</v>
+        <v>12148</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.01918663418377773</v>
+        <v>0.01918663418377774</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.009549213420598337</v>
+        <v>0.009116703239285684</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.03398922811665345</v>
+        <v>0.03513225847618603</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>11</v>
@@ -10106,19 +10106,19 @@
         <v>6634</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>3371</v>
+        <v>3140</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>11819</v>
+        <v>11569</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.01900655454406962</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.009658205811565956</v>
+        <v>0.008994602442929831</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.03386095137484021</v>
+        <v>0.03314482509282899</v>
       </c>
     </row>
     <row r="30">
@@ -10148,19 +10148,19 @@
         <v>4448</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>1843</v>
+        <v>1940</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>9002</v>
+        <v>9396</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.01286374015649541</v>
+        <v>0.01286374015649542</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.005328782383446647</v>
+        <v>0.005610551806970426</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.02603260201259425</v>
+        <v>0.02717288931662272</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>7</v>
@@ -10169,19 +10169,19 @@
         <v>4448</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1886</v>
+        <v>1911</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>8524</v>
+        <v>9214</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.01274300518701134</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.005401810739902096</v>
+        <v>0.005473815576141771</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.02442013621209766</v>
+        <v>0.02639788523351959</v>
       </c>
     </row>
     <row r="31">
@@ -10211,19 +10211,19 @@
         <v>19508</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>13607</v>
+        <v>13341</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>27847</v>
+        <v>27600</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.05641810106284986</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.03935086564709931</v>
+        <v>0.0385806221311567</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.08053193675508938</v>
+        <v>0.07982000757879401</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>34</v>
@@ -10232,19 +10232,19 @@
         <v>19508</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>13589</v>
+        <v>13594</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>27419</v>
+        <v>27824</v>
       </c>
       <c r="U31" s="6" t="n">
-        <v>0.05588857872896369</v>
+        <v>0.05588857872896368</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.03893006280650146</v>
+        <v>0.03894467936651207</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.07855049633904491</v>
+        <v>0.07971191857064118</v>
       </c>
     </row>
     <row r="32">
@@ -10274,19 +10274,19 @@
         <v>315192</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>306516</v>
+        <v>305331</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>323146</v>
+        <v>322797</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.9115315245968769</v>
+        <v>0.911531524596877</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.8864392050251718</v>
+        <v>0.8830143693262061</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.9345340372147537</v>
+        <v>0.9335243946303253</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>590</v>
@@ -10295,19 +10295,19 @@
         <v>318468</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>310405</v>
+        <v>308992</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>326593</v>
+        <v>326120</v>
       </c>
       <c r="U32" s="6" t="n">
-        <v>0.9123618615399555</v>
+        <v>0.9123618615399552</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.8892610825029857</v>
+        <v>0.8852151900963743</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.9356398179488999</v>
+        <v>0.9342840370289953</v>
       </c>
     </row>
     <row r="33">
@@ -10399,19 +10399,19 @@
         <v>2113</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>678</v>
+        <v>684</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>4781</v>
+        <v>4885</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.003014197565897312</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.0009664836118348387</v>
+        <v>0.0009753396978490317</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.006818097580970506</v>
+        <v>0.006966834451043032</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>22</v>
@@ -10420,19 +10420,19 @@
         <v>11995</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>7548</v>
+        <v>7865</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>18206</v>
+        <v>18570</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.01356139437078449</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.008534347996424904</v>
+        <v>0.008892245910668381</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.02058350794155917</v>
+        <v>0.0209955224064245</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>27</v>
@@ -10441,19 +10441,19 @@
         <v>14108</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>9625</v>
+        <v>9699</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>21458</v>
+        <v>21742</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.008897474691770456</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.006070245770744248</v>
+        <v>0.006117077078045593</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.01353291575592963</v>
+        <v>0.01371208896727756</v>
       </c>
     </row>
     <row r="35">
@@ -10470,19 +10470,19 @@
         <v>3176</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>663</v>
+        <v>916</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>8046</v>
+        <v>7793</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>0.004528925430418824</v>
+        <v>0.004528925430418823</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.0009455030626634609</v>
+        <v>0.00130602184562705</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.01147456947555598</v>
+        <v>0.01111383466866238</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>14</v>
@@ -10491,19 +10491,19 @@
         <v>8188</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>4328</v>
+        <v>4497</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>13192</v>
+        <v>13208</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.009257263330229458</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.004892779900727683</v>
+        <v>0.005083966385409698</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.01491456036938185</v>
+        <v>0.01493289972295862</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>18</v>
@@ -10512,19 +10512,19 @@
         <v>11363</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>7007</v>
+        <v>6920</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>18363</v>
+        <v>17926</v>
       </c>
       <c r="U35" s="6" t="n">
-        <v>0.007166415061451885</v>
+        <v>0.007166415061451886</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.004419270795648717</v>
+        <v>0.00436419780049246</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.01158071302655166</v>
+        <v>0.01130509419775583</v>
       </c>
     </row>
     <row r="36">
@@ -10541,19 +10541,19 @@
         <v>12731</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>7961</v>
+        <v>7621</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>20006</v>
+        <v>19761</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.01815680140542152</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.01135366076384194</v>
+        <v>0.01086982564283269</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.02853257624812738</v>
+        <v>0.02818273350702273</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>77</v>
@@ -10562,19 +10562,19 @@
         <v>40755</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>32393</v>
+        <v>31820</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>51793</v>
+        <v>50370</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.04607760785224379</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.03662398108499989</v>
+        <v>0.03597559322130827</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.05855797850324825</v>
+        <v>0.05694915351947541</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>96</v>
@@ -10583,19 +10583,19 @@
         <v>53485</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>44371</v>
+        <v>44158</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>66473</v>
+        <v>67253</v>
       </c>
       <c r="U36" s="6" t="n">
-        <v>0.03373116158313303</v>
+        <v>0.03373116158313302</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.02798313317515525</v>
+        <v>0.02784845523497574</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.04192167153836625</v>
+        <v>0.04241365489689396</v>
       </c>
     </row>
     <row r="37">
@@ -10612,19 +10612,19 @@
         <v>683141</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>675193</v>
+        <v>675723</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>689364</v>
+        <v>689548</v>
       </c>
       <c r="G37" s="6" t="n">
-        <v>0.9743000755982624</v>
+        <v>0.9743000755982623</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.9629649128745353</v>
+        <v>0.9637197843366653</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.9831754152324462</v>
+        <v>0.9834381606944755</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>1560</v>
@@ -10633,19 +10633,19 @@
         <v>823539</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>809487</v>
+        <v>812009</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>834085</v>
+        <v>834332</v>
       </c>
       <c r="N37" s="6" t="n">
-        <v>0.9311037344467422</v>
+        <v>0.9311037344467423</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.9152160734202496</v>
+        <v>0.9180674981629976</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.9430271801253957</v>
+        <v>0.9433067705140947</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>2538</v>
@@ -10654,19 +10654,19 @@
         <v>1506680</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>1490978</v>
+        <v>1490100</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>1519018</v>
+        <v>1517669</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.9502049486636447</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.9403019277442679</v>
+        <v>0.939748630433024</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.9579857652603159</v>
+        <v>0.9571354812446556</v>
       </c>
     </row>
     <row r="38">
